--- a/myy.xlsx
+++ b/myy.xlsx
@@ -46,6 +46,81 @@
     <x:t>ReasonToReject</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Account is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Account Details</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_3</x:t>
   </x:si>
   <x:si>
@@ -55,48 +130,12 @@
     <x:t>Edit Account</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
   </x:si>
   <x:si>
     <x:t>User is navigated to the Account Details page</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
     <x:t>User should be able to validate that the Account is edited</x:t>
   </x:si>
   <x:si>
@@ -122,45 +161,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Account is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -705,7 +705,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -720,54 +720,56 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
+      <x:c r="A8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -778,16 +780,16 @@
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -797,61 +799,61 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
+      <x:c r="A12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s"/>
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -861,61 +863,61 @@
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="A16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -925,17 +927,15 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -947,13 +947,13 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
